--- a/src/measurement/ImageJ/final_full_statistics_with_prawn_ids_and_uncertainty - Copy.xlsx
+++ b/src/measurement/ImageJ/final_full_statistics_with_prawn_ids_and_uncertainty - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbo10\Videos\research\counting_research_algorithms\src\measurement\ImageJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34DCC56-7E3C-40F4-AB79-0D4203F413D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA3174D-4F21-42B5-BF08-1029FF4F1EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>Global_Uncertainty</t>
   </si>
   <si>
-    <t>full body:'</t>
-  </si>
-  <si>
     <t>Prawn_0</t>
   </si>
   <si>
@@ -1457,6 +1454,9 @@
   </si>
   <si>
     <t>(3426.0220572, 1140.0092244, 901.0035977999999, 325.0046016)</t>
+  </si>
+  <si>
+    <t>full body:undistorted_GX010077_14_237.jpg_gamma</t>
   </si>
 </sst>
 </file>
@@ -1822,13 +1822,14 @@
   <dimension ref="A1:R133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="9" max="9" width="57.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -1889,10 +1890,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2">
         <v>75.624000000000009</v>
@@ -1913,13 +1914,13 @@
         <v>73.024000000000001</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
       </c>
       <c r="L2">
         <v>-61.46</v>
@@ -1945,10 +1946,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>477</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>119.40900000000001</v>
@@ -1969,13 +1970,13 @@
         <v>118.732</v>
       </c>
       <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
       </c>
       <c r="L3">
         <v>-116.318</v>
@@ -2001,10 +2002,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>477</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>104.47133333333331</v>
@@ -2025,13 +2026,13 @@
         <v>117.19199999999999</v>
       </c>
       <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
       </c>
       <c r="L4">
         <v>-99.926000000000002</v>
@@ -2057,10 +2058,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>120.6493333333333</v>
@@ -2081,13 +2082,13 @@
         <v>134.21600000000001</v>
       </c>
       <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
       </c>
       <c r="L5">
         <v>-137.447</v>
@@ -2113,10 +2114,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>93.004000000000005</v>
@@ -2137,13 +2138,13 @@
         <v>100.501</v>
       </c>
       <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
       </c>
       <c r="L6">
         <v>131.52199999999999</v>
@@ -2169,10 +2170,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>147.809</v>
@@ -2193,13 +2194,13 @@
         <v>158.13900000000001</v>
       </c>
       <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
         <v>38</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
       </c>
       <c r="L7">
         <v>-164.53299999999999</v>
@@ -2225,10 +2226,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>89.831000000000003</v>
@@ -2249,13 +2250,13 @@
         <v>96.879000000000005</v>
       </c>
       <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
       </c>
       <c r="L8">
         <v>5.625</v>
@@ -2281,10 +2282,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>112.4633333333333</v>
@@ -2305,13 +2306,13 @@
         <v>103.129</v>
       </c>
       <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
         <v>46</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>47</v>
-      </c>
-      <c r="K9" t="s">
-        <v>48</v>
       </c>
       <c r="L9">
         <v>132.39699999999999</v>
@@ -2337,10 +2338,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>115.2496666666667</v>
@@ -2361,13 +2362,13 @@
         <v>107.93</v>
       </c>
       <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>50</v>
-      </c>
-      <c r="K10" t="s">
-        <v>51</v>
       </c>
       <c r="L10">
         <v>117.917</v>
@@ -2393,10 +2394,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>123.1726666666667</v>
@@ -2417,13 +2418,13 @@
         <v>118.452</v>
       </c>
       <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
         <v>52</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>53</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
       </c>
       <c r="L11">
         <v>15.224</v>
@@ -2449,10 +2450,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>137.58866666666671</v>
@@ -2473,13 +2474,13 @@
         <v>138.63999999999999</v>
       </c>
       <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
         <v>56</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>57</v>
-      </c>
-      <c r="K12" t="s">
-        <v>58</v>
       </c>
       <c r="L12">
         <v>92.793000000000006</v>
@@ -2505,10 +2506,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>136.09433333333331</v>
@@ -2529,13 +2530,13 @@
         <v>134.19800000000001</v>
       </c>
       <c r="I13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
         <v>59</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>60</v>
-      </c>
-      <c r="K13" t="s">
-        <v>61</v>
       </c>
       <c r="L13">
         <v>28.454999999999998</v>
@@ -2561,10 +2562,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>102.96233333333331</v>
@@ -2585,13 +2586,13 @@
         <v>95.896000000000001</v>
       </c>
       <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
         <v>63</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>64</v>
-      </c>
-      <c r="K14" t="s">
-        <v>65</v>
       </c>
       <c r="L14">
         <v>151.88200000000001</v>
@@ -2617,10 +2618,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>87.692333333333337</v>
@@ -2641,13 +2642,13 @@
         <v>85.001000000000005</v>
       </c>
       <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
         <v>66</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>67</v>
-      </c>
-      <c r="K15" t="s">
-        <v>68</v>
       </c>
       <c r="L15">
         <v>-11.041</v>
@@ -2673,10 +2674,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>108.0396666666667</v>
@@ -2697,13 +2698,13 @@
         <v>102.81</v>
       </c>
       <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
         <v>69</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>70</v>
-      </c>
-      <c r="K16" t="s">
-        <v>71</v>
       </c>
       <c r="L16">
         <v>-139.321</v>
@@ -2729,10 +2730,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>112.2163333333333</v>
@@ -2753,13 +2754,13 @@
         <v>110.736</v>
       </c>
       <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
         <v>72</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>73</v>
-      </c>
-      <c r="K17" t="s">
-        <v>74</v>
       </c>
       <c r="L17">
         <v>-5.3230000000000004</v>
@@ -2785,10 +2786,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>131.18266666666671</v>
@@ -2809,13 +2810,13 @@
         <v>139.80600000000001</v>
       </c>
       <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
         <v>76</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>77</v>
-      </c>
-      <c r="K18" t="s">
-        <v>78</v>
       </c>
       <c r="L18">
         <v>124.58199999999999</v>
@@ -2841,10 +2842,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>126.04</v>
@@ -2865,13 +2866,13 @@
         <v>135.96</v>
       </c>
       <c r="I19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" t="s">
         <v>79</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>80</v>
-      </c>
-      <c r="K19" t="s">
-        <v>81</v>
       </c>
       <c r="L19">
         <v>91.116</v>
@@ -2897,10 +2898,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>79.953000000000017</v>
@@ -2921,13 +2922,13 @@
         <v>76.968000000000004</v>
       </c>
       <c r="I20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" t="s">
         <v>83</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>84</v>
-      </c>
-      <c r="K20" t="s">
-        <v>85</v>
       </c>
       <c r="L20">
         <v>-89.427000000000007</v>
@@ -2953,10 +2954,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>84.043666666666653</v>
@@ -2977,13 +2978,13 @@
         <v>80.159000000000006</v>
       </c>
       <c r="I21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" t="s">
         <v>86</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>87</v>
-      </c>
-      <c r="K21" t="s">
-        <v>88</v>
       </c>
       <c r="L21">
         <v>-56.997</v>
@@ -3009,10 +3010,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>144.47966666666659</v>
@@ -3033,13 +3034,13 @@
         <v>136.71700000000001</v>
       </c>
       <c r="I22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" t="s">
         <v>89</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>90</v>
-      </c>
-      <c r="K22" t="s">
-        <v>91</v>
       </c>
       <c r="L22">
         <v>-135</v>
@@ -3065,10 +3066,10 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>113.727</v>
@@ -3089,13 +3090,13 @@
         <v>110.625</v>
       </c>
       <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" t="s">
         <v>93</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>94</v>
-      </c>
-      <c r="K23" t="s">
-        <v>95</v>
       </c>
       <c r="L23">
         <v>-90</v>
@@ -3121,10 +3122,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>108.8563333333333</v>
@@ -3145,13 +3146,13 @@
         <v>105.985</v>
       </c>
       <c r="I24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" t="s">
         <v>96</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>97</v>
-      </c>
-      <c r="K24" t="s">
-        <v>98</v>
       </c>
       <c r="L24">
         <v>3.8140000000000001</v>
@@ -3177,10 +3178,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>94.281999999999996</v>
@@ -3201,13 +3202,13 @@
         <v>94.088999999999999</v>
       </c>
       <c r="I25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" t="s">
         <v>99</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>100</v>
-      </c>
-      <c r="K25" t="s">
-        <v>101</v>
       </c>
       <c r="L25">
         <v>-109.714</v>
@@ -3233,10 +3234,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>106.3263333333333</v>
@@ -3257,13 +3258,13 @@
         <v>109.07299999999999</v>
       </c>
       <c r="I26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" t="s">
         <v>103</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>104</v>
-      </c>
-      <c r="K26" t="s">
-        <v>105</v>
       </c>
       <c r="L26">
         <v>52.683999999999997</v>
@@ -3289,10 +3290,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>99.511333333333326</v>
@@ -3313,13 +3314,13 @@
         <v>97.53</v>
       </c>
       <c r="I27" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" t="s">
         <v>106</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>107</v>
-      </c>
-      <c r="K27" t="s">
-        <v>108</v>
       </c>
       <c r="L27">
         <v>-131.553</v>
@@ -3345,10 +3346,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>108.7296666666667</v>
@@ -3369,13 +3370,13 @@
         <v>107.55500000000001</v>
       </c>
       <c r="I28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" t="s">
         <v>109</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>110</v>
-      </c>
-      <c r="K28" t="s">
-        <v>111</v>
       </c>
       <c r="L28">
         <v>-115.185</v>
@@ -3401,10 +3402,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>120.7773333333333</v>
@@ -3425,13 +3426,13 @@
         <v>124.807</v>
       </c>
       <c r="I29" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" t="s">
         <v>113</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>114</v>
-      </c>
-      <c r="K29" t="s">
-        <v>115</v>
       </c>
       <c r="L29">
         <v>49.195999999999998</v>
@@ -3457,10 +3458,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>115.4813333333333</v>
@@ -3481,13 +3482,13 @@
         <v>118.56</v>
       </c>
       <c r="I30" t="s">
+        <v>115</v>
+      </c>
+      <c r="J30" t="s">
         <v>116</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>117</v>
-      </c>
-      <c r="K30" t="s">
-        <v>118</v>
       </c>
       <c r="L30">
         <v>-110.146</v>
@@ -3513,10 +3514,10 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>114.6996666666667</v>
@@ -3537,13 +3538,13 @@
         <v>120.422</v>
       </c>
       <c r="I31" t="s">
+        <v>118</v>
+      </c>
+      <c r="J31" t="s">
         <v>119</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>120</v>
-      </c>
-      <c r="K31" t="s">
-        <v>121</v>
       </c>
       <c r="L31">
         <v>-101.04900000000001</v>
@@ -3569,10 +3570,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>107.973</v>
@@ -3593,13 +3594,13 @@
         <v>114.47</v>
       </c>
       <c r="I32" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" t="s">
         <v>122</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>123</v>
-      </c>
-      <c r="K32" t="s">
-        <v>124</v>
       </c>
       <c r="L32">
         <v>149.995</v>
@@ -3625,10 +3626,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33">
         <v>113.17700000000001</v>
@@ -3649,13 +3650,13 @@
         <v>118.81</v>
       </c>
       <c r="I33" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" t="s">
         <v>126</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>127</v>
-      </c>
-      <c r="K33" t="s">
-        <v>128</v>
       </c>
       <c r="L33">
         <v>81.73</v>
@@ -3681,10 +3682,10 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>124.2416666666667</v>
@@ -3705,13 +3706,13 @@
         <v>121.336</v>
       </c>
       <c r="I34" t="s">
+        <v>129</v>
+      </c>
+      <c r="J34" t="s">
         <v>130</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>131</v>
-      </c>
-      <c r="K34" t="s">
-        <v>132</v>
       </c>
       <c r="L34">
         <v>53.780999999999999</v>
@@ -3737,10 +3738,10 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>128.16033333333331</v>
@@ -3761,13 +3762,13 @@
         <v>128.50800000000001</v>
       </c>
       <c r="I35" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" t="s">
         <v>133</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>134</v>
-      </c>
-      <c r="K35" t="s">
-        <v>135</v>
       </c>
       <c r="L35">
         <v>62.744999999999997</v>
@@ -3793,10 +3794,10 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36">
         <v>142.70433333333341</v>
@@ -3817,13 +3818,13 @@
         <v>150.22900000000001</v>
       </c>
       <c r="I36" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" t="s">
         <v>136</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>137</v>
-      </c>
-      <c r="K36" t="s">
-        <v>138</v>
       </c>
       <c r="L36">
         <v>54.755000000000003</v>
@@ -3849,10 +3850,10 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>129.93933333333331</v>
@@ -3873,13 +3874,13 @@
         <v>129.97900000000001</v>
       </c>
       <c r="I37" t="s">
+        <v>139</v>
+      </c>
+      <c r="J37" t="s">
         <v>140</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>141</v>
-      </c>
-      <c r="K37" t="s">
-        <v>142</v>
       </c>
       <c r="L37">
         <v>65.256</v>
@@ -3905,10 +3906,10 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38">
         <v>132.35400000000001</v>
@@ -3929,13 +3930,13 @@
         <v>136.31899999999999</v>
       </c>
       <c r="I38" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" t="s">
         <v>143</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>144</v>
-      </c>
-      <c r="K38" t="s">
-        <v>145</v>
       </c>
       <c r="L38">
         <v>40.451999999999998</v>
@@ -3961,10 +3962,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39">
         <v>95.671999999999983</v>
@@ -3985,13 +3986,13 @@
         <v>99.100999999999999</v>
       </c>
       <c r="I39" t="s">
+        <v>145</v>
+      </c>
+      <c r="J39" t="s">
         <v>146</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>147</v>
-      </c>
-      <c r="K39" t="s">
-        <v>148</v>
       </c>
       <c r="L39">
         <v>-135.45099999999999</v>
@@ -4017,10 +4018,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>120.0946666666667</v>
@@ -4041,13 +4042,13 @@
         <v>122.696</v>
       </c>
       <c r="I40" t="s">
+        <v>148</v>
+      </c>
+      <c r="J40" t="s">
         <v>149</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>150</v>
-      </c>
-      <c r="K40" t="s">
-        <v>151</v>
       </c>
       <c r="L40">
         <v>-137.553</v>
@@ -4073,10 +4074,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41">
         <v>148.17133333333331</v>
@@ -4097,13 +4098,13 @@
         <v>151.30199999999999</v>
       </c>
       <c r="I41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J41" t="s">
         <v>152</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>153</v>
-      </c>
-      <c r="K41" t="s">
-        <v>154</v>
       </c>
       <c r="L41">
         <v>24.917999999999999</v>
@@ -4129,10 +4130,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>121.3773333333333</v>
@@ -4153,13 +4154,13 @@
         <v>129.32900000000001</v>
       </c>
       <c r="I42" t="s">
+        <v>155</v>
+      </c>
+      <c r="J42" t="s">
         <v>156</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>157</v>
-      </c>
-      <c r="K42" t="s">
-        <v>158</v>
       </c>
       <c r="L42">
         <v>62.771000000000001</v>
@@ -4185,10 +4186,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43">
         <v>128.20933333333329</v>
@@ -4209,13 +4210,13 @@
         <v>130.07</v>
       </c>
       <c r="I43" t="s">
+        <v>158</v>
+      </c>
+      <c r="J43" t="s">
         <v>159</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>160</v>
-      </c>
-      <c r="K43" t="s">
-        <v>161</v>
       </c>
       <c r="L43">
         <v>29.055</v>
@@ -4241,10 +4242,10 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44">
         <v>101.84633333333331</v>
@@ -4265,13 +4266,13 @@
         <v>107.675</v>
       </c>
       <c r="I44" t="s">
+        <v>161</v>
+      </c>
+      <c r="J44" t="s">
         <v>162</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>163</v>
-      </c>
-      <c r="K44" t="s">
-        <v>164</v>
       </c>
       <c r="L44">
         <v>-115.20099999999999</v>
@@ -4297,10 +4298,10 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45">
         <v>126.37966666666669</v>
@@ -4321,13 +4322,13 @@
         <v>133.5</v>
       </c>
       <c r="I45" t="s">
+        <v>164</v>
+      </c>
+      <c r="J45" t="s">
         <v>165</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>166</v>
-      </c>
-      <c r="K45" t="s">
-        <v>167</v>
       </c>
       <c r="L45">
         <v>-139.297</v>
@@ -4353,10 +4354,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>135.76733333333331</v>
@@ -4377,13 +4378,13 @@
         <v>134.21600000000001</v>
       </c>
       <c r="I46" t="s">
+        <v>168</v>
+      </c>
+      <c r="J46" t="s">
         <v>169</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>170</v>
-      </c>
-      <c r="K46" t="s">
-        <v>171</v>
       </c>
       <c r="L46">
         <v>40.942999999999998</v>
@@ -4409,10 +4410,10 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47">
         <v>123.4516666666667</v>
@@ -4433,13 +4434,13 @@
         <v>123.405</v>
       </c>
       <c r="I47" t="s">
+        <v>171</v>
+      </c>
+      <c r="J47" t="s">
         <v>172</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>173</v>
-      </c>
-      <c r="K47" t="s">
-        <v>174</v>
       </c>
       <c r="L47">
         <v>-116.42100000000001</v>
@@ -4465,10 +4466,10 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48">
         <v>119.8393333333333</v>
@@ -4489,13 +4490,13 @@
         <v>117.872</v>
       </c>
       <c r="I48" t="s">
+        <v>174</v>
+      </c>
+      <c r="J48" t="s">
         <v>175</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>176</v>
-      </c>
-      <c r="K48" t="s">
-        <v>177</v>
       </c>
       <c r="L48">
         <v>-112.119</v>
@@ -4521,10 +4522,10 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49">
         <v>94.914000000000001</v>
@@ -4545,13 +4546,13 @@
         <v>95.475999999999999</v>
       </c>
       <c r="I49" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" t="s">
         <v>178</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>179</v>
-      </c>
-      <c r="K49" t="s">
-        <v>180</v>
       </c>
       <c r="L49">
         <v>9.3919999999999995</v>
@@ -4577,10 +4578,10 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50">
         <v>85.173000000000002</v>
@@ -4601,13 +4602,13 @@
         <v>85.486000000000004</v>
       </c>
       <c r="I50" t="s">
+        <v>181</v>
+      </c>
+      <c r="J50" t="s">
         <v>182</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>183</v>
-      </c>
-      <c r="K50" t="s">
-        <v>184</v>
       </c>
       <c r="L50">
         <v>55.491</v>
@@ -4633,10 +4634,10 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51">
         <v>143.8303333333333</v>
@@ -4657,13 +4658,13 @@
         <v>143.96600000000001</v>
       </c>
       <c r="I51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J51" t="s">
         <v>185</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>186</v>
-      </c>
-      <c r="K51" t="s">
-        <v>187</v>
       </c>
       <c r="L51">
         <v>165.69399999999999</v>
@@ -4689,10 +4690,10 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <v>97.42</v>
@@ -4713,13 +4714,13 @@
         <v>94.328000000000003</v>
       </c>
       <c r="I52" t="s">
+        <v>188</v>
+      </c>
+      <c r="J52" t="s">
         <v>189</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>190</v>
-      </c>
-      <c r="K52" t="s">
-        <v>191</v>
       </c>
       <c r="L52">
         <v>38.722999999999999</v>
@@ -4745,10 +4746,10 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>129.8183333333333</v>
@@ -4769,13 +4770,13 @@
         <v>129.39599999999999</v>
       </c>
       <c r="I53" t="s">
+        <v>191</v>
+      </c>
+      <c r="J53" t="s">
         <v>192</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>193</v>
-      </c>
-      <c r="K53" t="s">
-        <v>194</v>
       </c>
       <c r="L53">
         <v>173.12299999999999</v>
@@ -4801,10 +4802,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>116.8093333333333</v>
@@ -4825,13 +4826,13 @@
         <v>120.173</v>
       </c>
       <c r="I54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J54" t="s">
         <v>195</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>196</v>
-      </c>
-      <c r="K54" t="s">
-        <v>197</v>
       </c>
       <c r="L54">
         <v>-2.927</v>
@@ -4857,10 +4858,10 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55">
         <v>67.465999999999994</v>
@@ -4881,13 +4882,13 @@
         <v>70.584000000000003</v>
       </c>
       <c r="I55" t="s">
+        <v>198</v>
+      </c>
+      <c r="J55" t="s">
         <v>199</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>200</v>
-      </c>
-      <c r="K55" t="s">
-        <v>201</v>
       </c>
       <c r="L55">
         <v>-4.1980000000000004</v>
@@ -4913,10 +4914,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56">
         <v>113.96533333333331</v>
@@ -4937,13 +4938,13 @@
         <v>115.636</v>
       </c>
       <c r="I56" t="s">
+        <v>201</v>
+      </c>
+      <c r="J56" t="s">
         <v>202</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>203</v>
-      </c>
-      <c r="K56" t="s">
-        <v>204</v>
       </c>
       <c r="L56">
         <v>100.657</v>
@@ -4969,10 +4970,10 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57">
         <v>115.3283333333333</v>
@@ -4993,13 +4994,13 @@
         <v>123.809</v>
       </c>
       <c r="I57" t="s">
+        <v>204</v>
+      </c>
+      <c r="J57" t="s">
         <v>205</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>206</v>
-      </c>
-      <c r="K57" t="s">
-        <v>207</v>
       </c>
       <c r="L57">
         <v>-136.96</v>
@@ -5025,10 +5026,10 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58">
         <v>111.6186666666667</v>
@@ -5049,13 +5050,13 @@
         <v>119.33499999999999</v>
       </c>
       <c r="I58" t="s">
+        <v>208</v>
+      </c>
+      <c r="J58" t="s">
         <v>209</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>210</v>
-      </c>
-      <c r="K58" t="s">
-        <v>211</v>
       </c>
       <c r="L58">
         <v>-141.74</v>
@@ -5081,10 +5082,10 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59">
         <v>116.77266666666669</v>
@@ -5105,13 +5106,13 @@
         <v>127.583</v>
       </c>
       <c r="I59" t="s">
+        <v>211</v>
+      </c>
+      <c r="J59" t="s">
         <v>212</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>213</v>
-      </c>
-      <c r="K59" t="s">
-        <v>214</v>
       </c>
       <c r="L59">
         <v>-129.98699999999999</v>
@@ -5137,10 +5138,10 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C60">
         <v>121.8206666666667</v>
@@ -5161,13 +5162,13 @@
         <v>133.81399999999999</v>
       </c>
       <c r="I60" t="s">
+        <v>214</v>
+      </c>
+      <c r="J60" t="s">
         <v>215</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>216</v>
-      </c>
-      <c r="K60" t="s">
-        <v>217</v>
       </c>
       <c r="L60">
         <v>-106.136</v>
@@ -5193,10 +5194,10 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C61">
         <v>135.80600000000001</v>
@@ -5217,13 +5218,13 @@
         <v>145.80600000000001</v>
       </c>
       <c r="I61" t="s">
+        <v>217</v>
+      </c>
+      <c r="J61" t="s">
         <v>218</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>219</v>
-      </c>
-      <c r="K61" t="s">
-        <v>220</v>
       </c>
       <c r="L61">
         <v>-83.66</v>
@@ -5249,10 +5250,10 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62">
         <v>124.1656666666667</v>
@@ -5273,13 +5274,13 @@
         <v>146.13200000000001</v>
       </c>
       <c r="I62" t="s">
+        <v>221</v>
+      </c>
+      <c r="J62" t="s">
         <v>222</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>223</v>
-      </c>
-      <c r="K62" t="s">
-        <v>224</v>
       </c>
       <c r="L62">
         <v>-23.824000000000002</v>
@@ -5305,10 +5306,10 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>98.722666666666669</v>
@@ -5329,13 +5330,13 @@
         <v>105.70399999999999</v>
       </c>
       <c r="I63" t="s">
+        <v>224</v>
+      </c>
+      <c r="J63" t="s">
         <v>225</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>226</v>
-      </c>
-      <c r="K63" t="s">
-        <v>227</v>
       </c>
       <c r="L63">
         <v>-19.079000000000001</v>
@@ -5361,10 +5362,10 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C64">
         <v>135.8903333333333</v>
@@ -5385,13 +5386,13 @@
         <v>154.76599999999999</v>
       </c>
       <c r="I64" t="s">
+        <v>227</v>
+      </c>
+      <c r="J64" t="s">
         <v>228</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>229</v>
-      </c>
-      <c r="K64" t="s">
-        <v>230</v>
       </c>
       <c r="L64">
         <v>63.567999999999998</v>
@@ -5417,10 +5418,10 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65">
         <v>130.18600000000001</v>
@@ -5441,13 +5442,13 @@
         <v>132.81200000000001</v>
       </c>
       <c r="I65" t="s">
+        <v>231</v>
+      </c>
+      <c r="J65" t="s">
         <v>232</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>233</v>
-      </c>
-      <c r="K65" t="s">
-        <v>234</v>
       </c>
       <c r="L65">
         <v>-121.819</v>
@@ -5473,10 +5474,10 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66">
         <v>116.825</v>
@@ -5497,13 +5498,13 @@
         <v>125.5</v>
       </c>
       <c r="I66" t="s">
+        <v>234</v>
+      </c>
+      <c r="J66" t="s">
         <v>235</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>236</v>
-      </c>
-      <c r="K66" t="s">
-        <v>237</v>
       </c>
       <c r="L66">
         <v>-90.343000000000004</v>
@@ -5529,10 +5530,10 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C67">
         <v>105.5916666666667</v>
@@ -5553,13 +5554,13 @@
         <v>111.331</v>
       </c>
       <c r="I67" t="s">
+        <v>238</v>
+      </c>
+      <c r="J67" t="s">
         <v>239</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>240</v>
-      </c>
-      <c r="K67" t="s">
-        <v>241</v>
       </c>
       <c r="L67">
         <v>-94.736000000000004</v>
@@ -5585,10 +5586,10 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68">
         <v>113.8336666666667</v>
@@ -5609,13 +5610,13 @@
         <v>128.071</v>
       </c>
       <c r="I68" t="s">
+        <v>241</v>
+      </c>
+      <c r="J68" t="s">
         <v>242</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>243</v>
-      </c>
-      <c r="K68" t="s">
-        <v>244</v>
       </c>
       <c r="L68">
         <v>-57.74</v>
@@ -5641,10 +5642,10 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69">
         <v>134.67533333333341</v>
@@ -5665,13 +5666,13 @@
         <v>126.02800000000001</v>
       </c>
       <c r="I69" t="s">
+        <v>245</v>
+      </c>
+      <c r="J69" t="s">
         <v>246</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>247</v>
-      </c>
-      <c r="K69" t="s">
-        <v>248</v>
       </c>
       <c r="L69">
         <v>-100.08799999999999</v>
@@ -5697,10 +5698,10 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70">
         <v>147.935</v>
@@ -5721,13 +5722,13 @@
         <v>144.05600000000001</v>
       </c>
       <c r="I70" t="s">
+        <v>248</v>
+      </c>
+      <c r="J70" t="s">
         <v>249</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>250</v>
-      </c>
-      <c r="K70" t="s">
-        <v>251</v>
       </c>
       <c r="L70">
         <v>-101.249</v>
@@ -5753,10 +5754,10 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71">
         <v>168.85266666666669</v>
@@ -5777,13 +5778,13 @@
         <v>166.31399999999999</v>
       </c>
       <c r="I71" t="s">
+        <v>251</v>
+      </c>
+      <c r="J71" t="s">
         <v>252</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>253</v>
-      </c>
-      <c r="K71" t="s">
-        <v>254</v>
       </c>
       <c r="L71">
         <v>-119.50700000000001</v>
@@ -5809,10 +5810,10 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72">
         <v>127.0246666666666</v>
@@ -5833,13 +5834,13 @@
         <v>141.672</v>
       </c>
       <c r="I72" t="s">
+        <v>255</v>
+      </c>
+      <c r="J72" t="s">
         <v>256</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>257</v>
-      </c>
-      <c r="K72" t="s">
-        <v>258</v>
       </c>
       <c r="L72">
         <v>0.69399999999999995</v>
@@ -5865,10 +5866,10 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73">
         <v>127.06699999999999</v>
@@ -5889,13 +5890,13 @@
         <v>143.11699999999999</v>
       </c>
       <c r="I73" t="s">
+        <v>258</v>
+      </c>
+      <c r="J73" t="s">
         <v>259</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>260</v>
-      </c>
-      <c r="K73" t="s">
-        <v>261</v>
       </c>
       <c r="L73">
         <v>41.576000000000001</v>
@@ -5921,10 +5922,10 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C74">
         <v>110.01333333333331</v>
@@ -5945,13 +5946,13 @@
         <v>124.574</v>
       </c>
       <c r="I74" t="s">
+        <v>261</v>
+      </c>
+      <c r="J74" t="s">
         <v>262</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>263</v>
-      </c>
-      <c r="K74" t="s">
-        <v>264</v>
       </c>
       <c r="L74">
         <v>-53.646999999999998</v>
@@ -5977,10 +5978,10 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75">
         <v>134.249</v>
@@ -6001,13 +6002,13 @@
         <v>143.56399999999999</v>
       </c>
       <c r="I75" t="s">
+        <v>264</v>
+      </c>
+      <c r="J75" t="s">
         <v>265</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>266</v>
-      </c>
-      <c r="K75" t="s">
-        <v>267</v>
       </c>
       <c r="L75">
         <v>-53.902000000000001</v>
@@ -6033,10 +6034,10 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76">
         <v>73.087000000000003</v>
@@ -6057,13 +6058,13 @@
         <v>76.238</v>
       </c>
       <c r="I76" t="s">
+        <v>268</v>
+      </c>
+      <c r="J76" t="s">
         <v>269</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>270</v>
-      </c>
-      <c r="K76" t="s">
-        <v>271</v>
       </c>
       <c r="L76">
         <v>-51.509</v>
@@ -6089,10 +6090,10 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C77">
         <v>64.971999999999994</v>
@@ -6113,13 +6114,13 @@
         <v>71.715999999999994</v>
       </c>
       <c r="I77" t="s">
+        <v>271</v>
+      </c>
+      <c r="J77" t="s">
         <v>272</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>273</v>
-      </c>
-      <c r="K77" t="s">
-        <v>274</v>
       </c>
       <c r="L77">
         <v>-49.399000000000001</v>
@@ -6145,10 +6146,10 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C78">
         <v>83.094333333333338</v>
@@ -6169,13 +6170,13 @@
         <v>85.19</v>
       </c>
       <c r="I78" t="s">
+        <v>274</v>
+      </c>
+      <c r="J78" t="s">
         <v>275</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>276</v>
-      </c>
-      <c r="K78" t="s">
-        <v>277</v>
       </c>
       <c r="L78">
         <v>-107.83499999999999</v>
@@ -6201,10 +6202,10 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C79">
         <v>52.411000000000001</v>
@@ -6225,13 +6226,13 @@
         <v>56.460999999999999</v>
       </c>
       <c r="I79" t="s">
+        <v>277</v>
+      </c>
+      <c r="J79" t="s">
         <v>278</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>279</v>
-      </c>
-      <c r="K79" t="s">
-        <v>280</v>
       </c>
       <c r="L79">
         <v>-49.573999999999998</v>
@@ -6257,10 +6258,10 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C80">
         <v>124.4056666666667</v>
@@ -6281,13 +6282,13 @@
         <v>118.226</v>
       </c>
       <c r="I80" t="s">
+        <v>281</v>
+      </c>
+      <c r="J80" t="s">
         <v>282</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>283</v>
-      </c>
-      <c r="K80" t="s">
-        <v>284</v>
       </c>
       <c r="L80">
         <v>-19.440000000000001</v>
@@ -6313,10 +6314,10 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81">
         <v>72.343000000000004</v>
@@ -6337,13 +6338,13 @@
         <v>65.078999999999994</v>
       </c>
       <c r="I81" t="s">
+        <v>285</v>
+      </c>
+      <c r="J81" t="s">
         <v>286</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>287</v>
-      </c>
-      <c r="K81" t="s">
-        <v>288</v>
       </c>
       <c r="L81">
         <v>-106.361</v>
@@ -6369,10 +6370,10 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82">
         <v>91.019000000000005</v>
@@ -6393,13 +6394,13 @@
         <v>105.81699999999999</v>
       </c>
       <c r="I82" t="s">
+        <v>288</v>
+      </c>
+      <c r="J82" t="s">
         <v>289</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>290</v>
-      </c>
-      <c r="K82" t="s">
-        <v>291</v>
       </c>
       <c r="L82">
         <v>-87.161000000000001</v>
@@ -6425,10 +6426,10 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83">
         <v>36.821666666666673</v>
@@ -6449,13 +6450,13 @@
         <v>39.162999999999997</v>
       </c>
       <c r="I83" t="s">
+        <v>291</v>
+      </c>
+      <c r="J83" t="s">
         <v>292</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>293</v>
-      </c>
-      <c r="K83" t="s">
-        <v>294</v>
       </c>
       <c r="L83">
         <v>30.963999999999999</v>
@@ -6481,10 +6482,10 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84">
         <v>85.405333333333331</v>
@@ -6505,13 +6506,13 @@
         <v>98.983000000000004</v>
       </c>
       <c r="I84" t="s">
+        <v>295</v>
+      </c>
+      <c r="J84" t="s">
         <v>296</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>297</v>
-      </c>
-      <c r="K84" t="s">
-        <v>298</v>
       </c>
       <c r="L84">
         <v>128.79</v>
@@ -6537,10 +6538,10 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85">
         <v>112.616</v>
@@ -6561,13 +6562,13 @@
         <v>124.142</v>
       </c>
       <c r="I85" t="s">
+        <v>298</v>
+      </c>
+      <c r="J85" t="s">
         <v>299</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>300</v>
-      </c>
-      <c r="K85" t="s">
-        <v>301</v>
       </c>
       <c r="L85">
         <v>161.66300000000001</v>
@@ -6593,10 +6594,10 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86">
         <v>116.2806666666667</v>
@@ -6617,13 +6618,13 @@
         <v>118.21</v>
       </c>
       <c r="I86" t="s">
+        <v>302</v>
+      </c>
+      <c r="J86" t="s">
         <v>303</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>304</v>
-      </c>
-      <c r="K86" t="s">
-        <v>305</v>
       </c>
       <c r="L86">
         <v>-162.553</v>
@@ -6649,10 +6650,10 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C87">
         <v>118.9936666666667</v>
@@ -6673,13 +6674,13 @@
         <v>126.684</v>
       </c>
       <c r="I87" t="s">
+        <v>306</v>
+      </c>
+      <c r="J87" t="s">
         <v>307</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>308</v>
-      </c>
-      <c r="K87" t="s">
-        <v>309</v>
       </c>
       <c r="L87">
         <v>-71.400000000000006</v>
@@ -6705,10 +6706,10 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C88">
         <v>118.65600000000001</v>
@@ -6729,13 +6730,13 @@
         <v>121.42400000000001</v>
       </c>
       <c r="I88" t="s">
+        <v>310</v>
+      </c>
+      <c r="J88" t="s">
         <v>311</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>312</v>
-      </c>
-      <c r="K88" t="s">
-        <v>313</v>
       </c>
       <c r="L88">
         <v>-34.286999999999999</v>
@@ -6761,10 +6762,10 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C89">
         <v>103.2106666666667</v>
@@ -6785,13 +6786,13 @@
         <v>102.575</v>
       </c>
       <c r="I89" t="s">
+        <v>314</v>
+      </c>
+      <c r="J89" t="s">
         <v>315</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>316</v>
-      </c>
-      <c r="K89" t="s">
-        <v>317</v>
       </c>
       <c r="L89">
         <v>15.641999999999999</v>
@@ -6817,10 +6818,10 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C90">
         <v>99.145333333333326</v>
@@ -6841,13 +6842,13 @@
         <v>95.072999999999993</v>
       </c>
       <c r="I90" t="s">
+        <v>317</v>
+      </c>
+      <c r="J90" t="s">
         <v>318</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>319</v>
-      </c>
-      <c r="K90" t="s">
-        <v>320</v>
       </c>
       <c r="L90">
         <v>99.866</v>
@@ -6873,10 +6874,10 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C91">
         <v>113.193</v>
@@ -6897,13 +6898,13 @@
         <v>110.996</v>
       </c>
       <c r="I91" t="s">
+        <v>321</v>
+      </c>
+      <c r="J91" t="s">
         <v>322</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>323</v>
-      </c>
-      <c r="K91" t="s">
-        <v>324</v>
       </c>
       <c r="L91">
         <v>87.739000000000004</v>
@@ -6929,10 +6930,10 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92">
         <v>137.114</v>
@@ -6953,13 +6954,13 @@
         <v>140.22399999999999</v>
       </c>
       <c r="I92" t="s">
+        <v>324</v>
+      </c>
+      <c r="J92" t="s">
         <v>325</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>326</v>
-      </c>
-      <c r="K92" t="s">
-        <v>327</v>
       </c>
       <c r="L92">
         <v>2.476</v>
@@ -6985,10 +6986,10 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C93">
         <v>105.88</v>
@@ -7009,13 +7010,13 @@
         <v>106.818</v>
       </c>
       <c r="I93" t="s">
+        <v>327</v>
+      </c>
+      <c r="J93" t="s">
         <v>328</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>329</v>
-      </c>
-      <c r="K93" t="s">
-        <v>330</v>
       </c>
       <c r="L93">
         <v>149.036</v>
@@ -7041,10 +7042,10 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C94">
         <v>94.394333333333336</v>
@@ -7065,13 +7066,13 @@
         <v>101.94499999999999</v>
       </c>
       <c r="I94" t="s">
+        <v>330</v>
+      </c>
+      <c r="J94" t="s">
         <v>331</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>332</v>
-      </c>
-      <c r="K94" t="s">
-        <v>333</v>
       </c>
       <c r="L94">
         <v>35.994999999999997</v>
@@ -7097,10 +7098,10 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C95">
         <v>127.93866666666671</v>
@@ -7121,13 +7122,13 @@
         <v>125.56699999999999</v>
       </c>
       <c r="I95" t="s">
+        <v>334</v>
+      </c>
+      <c r="J95" t="s">
         <v>335</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>336</v>
-      </c>
-      <c r="K95" t="s">
-        <v>337</v>
       </c>
       <c r="L95">
         <v>73.123999999999995</v>
@@ -7153,10 +7154,10 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C96">
         <v>150.87933333333331</v>
@@ -7177,13 +7178,13 @@
         <v>157.77699999999999</v>
       </c>
       <c r="I96" t="s">
+        <v>337</v>
+      </c>
+      <c r="J96" t="s">
         <v>338</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>339</v>
-      </c>
-      <c r="K96" t="s">
-        <v>340</v>
       </c>
       <c r="L96">
         <v>-14.834</v>
@@ -7209,10 +7210,10 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C97">
         <v>100.8036666666667</v>
@@ -7233,13 +7234,13 @@
         <v>106.004</v>
       </c>
       <c r="I97" t="s">
+        <v>340</v>
+      </c>
+      <c r="J97" t="s">
         <v>341</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>342</v>
-      </c>
-      <c r="K97" t="s">
-        <v>343</v>
       </c>
       <c r="L97">
         <v>6.9340000000000002</v>
@@ -7265,10 +7266,10 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C98">
         <v>99.61066666666666</v>
@@ -7289,13 +7290,13 @@
         <v>102.896</v>
       </c>
       <c r="I98" t="s">
+        <v>343</v>
+      </c>
+      <c r="J98" t="s">
         <v>344</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>345</v>
-      </c>
-      <c r="K98" t="s">
-        <v>346</v>
       </c>
       <c r="L98">
         <v>83.387</v>
@@ -7321,10 +7322,10 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C99">
         <v>101.21533333333331</v>
@@ -7345,13 +7346,13 @@
         <v>105.651</v>
       </c>
       <c r="I99" t="s">
+        <v>347</v>
+      </c>
+      <c r="J99" t="s">
         <v>348</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>349</v>
-      </c>
-      <c r="K99" t="s">
-        <v>350</v>
       </c>
       <c r="L99">
         <v>-10.112</v>
@@ -7377,10 +7378,10 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C100">
         <v>95.208000000000013</v>
@@ -7401,13 +7402,13 @@
         <v>102.15300000000001</v>
       </c>
       <c r="I100" t="s">
+        <v>350</v>
+      </c>
+      <c r="J100" t="s">
         <v>351</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>352</v>
-      </c>
-      <c r="K100" t="s">
-        <v>353</v>
       </c>
       <c r="L100">
         <v>-53.807000000000002</v>
@@ -7433,10 +7434,10 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C101">
         <v>155.33266666666671</v>
@@ -7457,13 +7458,13 @@
         <v>159.47800000000001</v>
       </c>
       <c r="I101" t="s">
+        <v>354</v>
+      </c>
+      <c r="J101" t="s">
         <v>355</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>356</v>
-      </c>
-      <c r="K101" t="s">
-        <v>357</v>
       </c>
       <c r="L101">
         <v>-33.161000000000001</v>
@@ -7489,10 +7490,10 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C102">
         <v>93.12166666666667</v>
@@ -7513,13 +7514,13 @@
         <v>95.757999999999996</v>
       </c>
       <c r="I102" t="s">
+        <v>358</v>
+      </c>
+      <c r="J102" t="s">
         <v>359</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>360</v>
-      </c>
-      <c r="K102" t="s">
-        <v>361</v>
       </c>
       <c r="L102">
         <v>-54.850999999999999</v>
@@ -7545,10 +7546,10 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C103">
         <v>47.578666666666663</v>
@@ -7569,13 +7570,13 @@
         <v>51.210999999999999</v>
       </c>
       <c r="I103" t="s">
+        <v>361</v>
+      </c>
+      <c r="J103" t="s">
         <v>362</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>363</v>
-      </c>
-      <c r="K103" t="s">
-        <v>364</v>
       </c>
       <c r="L103">
         <v>-106.18899999999999</v>
@@ -7601,10 +7602,10 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C104">
         <v>60.426666666666669</v>
@@ -7625,13 +7626,13 @@
         <v>62.908999999999999</v>
       </c>
       <c r="I104" t="s">
+        <v>364</v>
+      </c>
+      <c r="J104" t="s">
         <v>365</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>366</v>
-      </c>
-      <c r="K104" t="s">
-        <v>367</v>
       </c>
       <c r="L104">
         <v>-87.173000000000002</v>
@@ -7657,10 +7658,10 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C105">
         <v>67.900999999999996</v>
@@ -7681,13 +7682,13 @@
         <v>71.703000000000003</v>
       </c>
       <c r="I105" t="s">
+        <v>367</v>
+      </c>
+      <c r="J105" t="s">
         <v>368</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>369</v>
-      </c>
-      <c r="K105" t="s">
-        <v>370</v>
       </c>
       <c r="L105">
         <v>134.04499999999999</v>
@@ -7713,10 +7714,10 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C106">
         <v>68.095333333333329</v>
@@ -7737,13 +7738,13 @@
         <v>75.201999999999998</v>
       </c>
       <c r="I106" t="s">
+        <v>371</v>
+      </c>
+      <c r="J106" t="s">
         <v>372</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>373</v>
-      </c>
-      <c r="K106" t="s">
-        <v>374</v>
       </c>
       <c r="L106">
         <v>-51.545999999999999</v>
@@ -7769,10 +7770,10 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C107">
         <v>132.286</v>
@@ -7793,13 +7794,13 @@
         <v>126.31699999999999</v>
       </c>
       <c r="I107" t="s">
+        <v>375</v>
+      </c>
+      <c r="J107" t="s">
         <v>376</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>377</v>
-      </c>
-      <c r="K107" t="s">
-        <v>378</v>
       </c>
       <c r="L107">
         <v>51.189</v>
@@ -7825,10 +7826,10 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C108">
         <v>56.470999999999997</v>
@@ -7849,13 +7850,13 @@
         <v>62.636000000000003</v>
       </c>
       <c r="I108" t="s">
+        <v>379</v>
+      </c>
+      <c r="J108" t="s">
         <v>380</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>381</v>
-      </c>
-      <c r="K108" t="s">
-        <v>382</v>
       </c>
       <c r="L108">
         <v>-47.121000000000002</v>
@@ -7881,10 +7882,10 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109">
         <v>95.688666666666677</v>
@@ -7905,13 +7906,13 @@
         <v>103</v>
       </c>
       <c r="I109" t="s">
+        <v>382</v>
+      </c>
+      <c r="J109" t="s">
         <v>383</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>384</v>
-      </c>
-      <c r="K109" t="s">
-        <v>385</v>
       </c>
       <c r="L109">
         <v>-44.109000000000002</v>
@@ -7937,10 +7938,10 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C110">
         <v>113.768</v>
@@ -7961,13 +7962,13 @@
         <v>124.92</v>
       </c>
       <c r="I110" t="s">
+        <v>387</v>
+      </c>
+      <c r="J110" t="s">
         <v>388</v>
       </c>
-      <c r="J110" t="s">
-        <v>389</v>
-      </c>
       <c r="K110" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L110">
         <v>-149.108</v>
@@ -7993,10 +7994,10 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C111">
         <v>127.1096666666667</v>
@@ -8017,13 +8018,13 @@
         <v>139.18799999999999</v>
       </c>
       <c r="I111" t="s">
+        <v>389</v>
+      </c>
+      <c r="J111" t="s">
         <v>390</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>391</v>
-      </c>
-      <c r="K111" t="s">
-        <v>392</v>
       </c>
       <c r="L111">
         <v>-77.179000000000002</v>
@@ -8049,10 +8050,10 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C112">
         <v>144.60033333333331</v>
@@ -8073,13 +8074,13 @@
         <v>139.523</v>
       </c>
       <c r="I112" t="s">
+        <v>393</v>
+      </c>
+      <c r="J112" t="s">
         <v>394</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>395</v>
-      </c>
-      <c r="K112" t="s">
-        <v>396</v>
       </c>
       <c r="L112">
         <v>68.94</v>
@@ -8105,10 +8106,10 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C113">
         <v>108.5776666666667</v>
@@ -8129,13 +8130,13 @@
         <v>111.66800000000001</v>
       </c>
       <c r="I113" t="s">
+        <v>397</v>
+      </c>
+      <c r="J113" t="s">
         <v>398</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
         <v>399</v>
-      </c>
-      <c r="K113" t="s">
-        <v>400</v>
       </c>
       <c r="L113">
         <v>-42.639000000000003</v>
@@ -8161,10 +8162,10 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C114">
         <v>95.48366666666665</v>
@@ -8185,13 +8186,13 @@
         <v>81.721999999999994</v>
       </c>
       <c r="I114" t="s">
+        <v>401</v>
+      </c>
+      <c r="J114" t="s">
         <v>402</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>403</v>
-      </c>
-      <c r="K114" t="s">
-        <v>404</v>
       </c>
       <c r="L114">
         <v>16.440000000000001</v>
@@ -8217,10 +8218,10 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C115">
         <v>104.01900000000001</v>
@@ -8241,13 +8242,13 @@
         <v>95.558999999999997</v>
       </c>
       <c r="I115" t="s">
+        <v>405</v>
+      </c>
+      <c r="J115" t="s">
         <v>406</v>
       </c>
-      <c r="J115" t="s">
+      <c r="K115" t="s">
         <v>407</v>
-      </c>
-      <c r="K115" t="s">
-        <v>408</v>
       </c>
       <c r="L115">
         <v>-6.56</v>
@@ -8273,10 +8274,10 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C116">
         <v>113.90933333333329</v>
@@ -8297,13 +8298,13 @@
         <v>114.79</v>
       </c>
       <c r="I116" t="s">
+        <v>409</v>
+      </c>
+      <c r="J116" t="s">
         <v>410</v>
       </c>
-      <c r="J116" t="s">
+      <c r="K116" t="s">
         <v>411</v>
-      </c>
-      <c r="K116" t="s">
-        <v>412</v>
       </c>
       <c r="L116">
         <v>-107.182</v>
@@ -8329,10 +8330,10 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C117">
         <v>135.9966666666667</v>
@@ -8353,13 +8354,13 @@
         <v>145.16399999999999</v>
       </c>
       <c r="I117" t="s">
+        <v>413</v>
+      </c>
+      <c r="J117" t="s">
         <v>414</v>
       </c>
-      <c r="J117" t="s">
+      <c r="K117" t="s">
         <v>415</v>
-      </c>
-      <c r="K117" t="s">
-        <v>416</v>
       </c>
       <c r="L117">
         <v>-176.785</v>
@@ -8385,10 +8386,10 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C118">
         <v>98.146333333333345</v>
@@ -8409,13 +8410,13 @@
         <v>100.49</v>
       </c>
       <c r="I118" t="s">
+        <v>416</v>
+      </c>
+      <c r="J118" t="s">
         <v>417</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" t="s">
         <v>418</v>
-      </c>
-      <c r="K118" t="s">
-        <v>419</v>
       </c>
       <c r="L118">
         <v>26.154</v>
@@ -8441,10 +8442,10 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C119">
         <v>102.2796666666667</v>
@@ -8465,13 +8466,13 @@
         <v>96.301000000000002</v>
       </c>
       <c r="I119" t="s">
+        <v>420</v>
+      </c>
+      <c r="J119" t="s">
         <v>421</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K119" t="s">
         <v>422</v>
-      </c>
-      <c r="K119" t="s">
-        <v>423</v>
       </c>
       <c r="L119">
         <v>-39.86</v>
@@ -8497,10 +8498,10 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C120">
         <v>135.11333333333329</v>
@@ -8521,13 +8522,13 @@
         <v>133.19399999999999</v>
       </c>
       <c r="I120" t="s">
+        <v>423</v>
+      </c>
+      <c r="J120" t="s">
         <v>424</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K120" t="s">
         <v>425</v>
-      </c>
-      <c r="K120" t="s">
-        <v>426</v>
       </c>
       <c r="L120">
         <v>14.191000000000001</v>
@@ -8553,10 +8554,10 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C121">
         <v>91.349333333333334</v>
@@ -8577,13 +8578,13 @@
         <v>98.682000000000002</v>
       </c>
       <c r="I121" t="s">
+        <v>427</v>
+      </c>
+      <c r="J121" t="s">
         <v>428</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>429</v>
-      </c>
-      <c r="K121" t="s">
-        <v>430</v>
       </c>
       <c r="L121">
         <v>-55.84</v>
@@ -8609,10 +8610,10 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C122">
         <v>111.5616666666667</v>
@@ -8633,13 +8634,13 @@
         <v>112.196</v>
       </c>
       <c r="I122" t="s">
+        <v>431</v>
+      </c>
+      <c r="J122" t="s">
         <v>432</v>
       </c>
-      <c r="J122" t="s">
+      <c r="K122" t="s">
         <v>433</v>
-      </c>
-      <c r="K122" t="s">
-        <v>434</v>
       </c>
       <c r="L122">
         <v>-15.436</v>
@@ -8665,10 +8666,10 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C123">
         <v>112.24566666666669</v>
@@ -8689,13 +8690,13 @@
         <v>117.46899999999999</v>
       </c>
       <c r="I123" t="s">
+        <v>435</v>
+      </c>
+      <c r="J123" t="s">
         <v>436</v>
       </c>
-      <c r="J123" t="s">
+      <c r="K123" t="s">
         <v>437</v>
-      </c>
-      <c r="K123" t="s">
-        <v>438</v>
       </c>
       <c r="L123">
         <v>-138.95400000000001</v>
@@ -8721,10 +8722,10 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C124">
         <v>112.521</v>
@@ -8745,13 +8746,13 @@
         <v>125.47</v>
       </c>
       <c r="I124" t="s">
+        <v>439</v>
+      </c>
+      <c r="J124" t="s">
         <v>440</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>441</v>
-      </c>
-      <c r="K124" t="s">
-        <v>442</v>
       </c>
       <c r="L124">
         <v>124.931</v>
@@ -8777,10 +8778,10 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C125">
         <v>103.75433333333331</v>
@@ -8801,13 +8802,13 @@
         <v>102.684</v>
       </c>
       <c r="I125" t="s">
+        <v>443</v>
+      </c>
+      <c r="J125" t="s">
         <v>444</v>
       </c>
-      <c r="J125" t="s">
+      <c r="K125" t="s">
         <v>445</v>
-      </c>
-      <c r="K125" t="s">
-        <v>446</v>
       </c>
       <c r="L125">
         <v>1.948</v>
@@ -8833,10 +8834,10 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C126">
         <v>104.3123333333333</v>
@@ -8857,13 +8858,13 @@
         <v>107.15300000000001</v>
       </c>
       <c r="I126" t="s">
+        <v>447</v>
+      </c>
+      <c r="J126" t="s">
         <v>448</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>449</v>
-      </c>
-      <c r="K126" t="s">
-        <v>450</v>
       </c>
       <c r="L126">
         <v>111.65300000000001</v>
@@ -8889,10 +8890,10 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C127">
         <v>111.73666666666669</v>
@@ -8913,13 +8914,13 @@
         <v>114.50700000000001</v>
       </c>
       <c r="I127" t="s">
+        <v>451</v>
+      </c>
+      <c r="J127" t="s">
         <v>452</v>
       </c>
-      <c r="J127" t="s">
-        <v>453</v>
-      </c>
       <c r="K127" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L127">
         <v>-80.823999999999998</v>
@@ -8945,10 +8946,10 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C128">
         <v>121.9023333333333</v>
@@ -8969,13 +8970,13 @@
         <v>121.301</v>
       </c>
       <c r="I128" t="s">
+        <v>454</v>
+      </c>
+      <c r="J128" t="s">
         <v>455</v>
       </c>
-      <c r="J128" t="s">
+      <c r="K128" t="s">
         <v>456</v>
-      </c>
-      <c r="K128" t="s">
-        <v>457</v>
       </c>
       <c r="L128">
         <v>-168.321</v>
@@ -9001,10 +9002,10 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C129">
         <v>146.26033333333339</v>
@@ -9025,13 +9026,13 @@
         <v>155.602</v>
       </c>
       <c r="I129" t="s">
+        <v>458</v>
+      </c>
+      <c r="J129" t="s">
         <v>459</v>
       </c>
-      <c r="J129" t="s">
+      <c r="K129" t="s">
         <v>460</v>
-      </c>
-      <c r="K129" t="s">
-        <v>461</v>
       </c>
       <c r="L129">
         <v>171.495</v>
@@ -9057,10 +9058,10 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C130">
         <v>152.66999999999999</v>
@@ -9081,13 +9082,13 @@
         <v>165.952</v>
       </c>
       <c r="I130" t="s">
+        <v>462</v>
+      </c>
+      <c r="J130" t="s">
         <v>463</v>
       </c>
-      <c r="J130" t="s">
+      <c r="K130" t="s">
         <v>464</v>
-      </c>
-      <c r="K130" t="s">
-        <v>465</v>
       </c>
       <c r="L130">
         <v>179.67599999999999</v>
@@ -9113,10 +9114,10 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C131">
         <v>100.0536666666667</v>
@@ -9137,13 +9138,13 @@
         <v>100.46</v>
       </c>
       <c r="I131" t="s">
+        <v>466</v>
+      </c>
+      <c r="J131" t="s">
         <v>467</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>468</v>
-      </c>
-      <c r="K131" t="s">
-        <v>469</v>
       </c>
       <c r="L131">
         <v>168.40799999999999</v>
@@ -9169,10 +9170,10 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C132">
         <v>136.75066666666669</v>
@@ -9193,13 +9194,13 @@
         <v>128.88300000000001</v>
       </c>
       <c r="I132" t="s">
+        <v>470</v>
+      </c>
+      <c r="J132" t="s">
         <v>471</v>
       </c>
-      <c r="J132" t="s">
+      <c r="K132" t="s">
         <v>472</v>
-      </c>
-      <c r="K132" t="s">
-        <v>473</v>
       </c>
       <c r="L132">
         <v>20.992999999999999</v>
@@ -9225,10 +9226,10 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C133">
         <v>134.55833333333331</v>
@@ -9249,13 +9250,13 @@
         <v>140.42500000000001</v>
       </c>
       <c r="I133" t="s">
+        <v>474</v>
+      </c>
+      <c r="J133" t="s">
         <v>475</v>
       </c>
-      <c r="J133" t="s">
+      <c r="K133" t="s">
         <v>476</v>
-      </c>
-      <c r="K133" t="s">
-        <v>477</v>
       </c>
       <c r="L133">
         <v>-20.658999999999999</v>

--- a/src/measurement/ImageJ/final_full_statistics_with_prawn_ids_and_uncertainty - Copy.xlsx
+++ b/src/measurement/ImageJ/final_full_statistics_with_prawn_ids_and_uncertainty - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbo10\Videos\research\counting_research_algorithms\src\measurement\ImageJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilbenor/Documents/code projects/msc/counting_research_algorithms/src/measurement/ImageJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA3174D-4F21-42B5-BF08-1029FF4F1EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6861BCE-55A8-F049-8E5F-DA17FB79EC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1475,6 +1475,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1822,17 +1823,17 @@
   <dimension ref="A1:R133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="9" max="9" width="57.21875" customWidth="1"/>
+    <col min="9" max="9" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>477</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>477</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>477</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2112,7 +2113,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -3568,7 +3569,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>128</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -4072,7 +4073,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -4128,7 +4129,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -4184,7 +4185,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -4296,7 +4297,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>154</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>167</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -4576,7 +4577,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>180</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>187</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>187</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>187</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>197</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>197</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>207</v>
       </c>
@@ -5080,7 +5081,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>207</v>
       </c>
@@ -5136,7 +5137,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>207</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>220</v>
       </c>
@@ -5304,7 +5305,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>220</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>220</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>230</v>
       </c>
@@ -5472,7 +5473,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>230</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>237</v>
       </c>
@@ -5584,7 +5585,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>237</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>244</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>244</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>244</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>254</v>
       </c>
@@ -5864,7 +5865,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>254</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>254</v>
       </c>
@@ -5976,7 +5977,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>254</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>267</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>267</v>
       </c>
@@ -6144,7 +6145,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>267</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>267</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>280</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>284</v>
       </c>
@@ -6368,7 +6369,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>284</v>
       </c>
@@ -6424,7 +6425,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>284</v>
       </c>
@@ -6480,7 +6481,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>294</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>294</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>301</v>
       </c>
@@ -6648,7 +6649,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>305</v>
       </c>
@@ -6704,7 +6705,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>309</v>
       </c>
@@ -6760,7 +6761,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>313</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>313</v>
       </c>
@@ -6872,7 +6873,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>320</v>
       </c>
@@ -6928,7 +6929,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>320</v>
       </c>
@@ -6984,7 +6985,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>320</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>320</v>
       </c>
@@ -7096,7 +7097,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>333</v>
       </c>
@@ -7152,7 +7153,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>333</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>333</v>
       </c>
@@ -7264,7 +7265,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>333</v>
       </c>
@@ -7320,7 +7321,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>346</v>
       </c>
@@ -7376,7 +7377,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>346</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>353</v>
       </c>
@@ -7488,7 +7489,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>357</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>357</v>
       </c>
@@ -7600,7 +7601,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>357</v>
       </c>
@@ -7656,7 +7657,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>357</v>
       </c>
@@ -7712,7 +7713,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>357</v>
       </c>
@@ -7768,7 +7769,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>374</v>
       </c>
@@ -7824,7 +7825,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>378</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>378</v>
       </c>
@@ -7936,7 +7937,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>385</v>
       </c>
@@ -7992,7 +7993,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>385</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>392</v>
       </c>
@@ -8104,7 +8105,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>396</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>400</v>
       </c>
@@ -8216,7 +8217,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>404</v>
       </c>
@@ -8272,7 +8273,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>408</v>
       </c>
@@ -8328,7 +8329,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>412</v>
       </c>
@@ -8384,7 +8385,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>412</v>
       </c>
@@ -8440,7 +8441,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>419</v>
       </c>
@@ -8496,7 +8497,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>419</v>
       </c>
@@ -8552,7 +8553,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>426</v>
       </c>
@@ -8608,7 +8609,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>430</v>
       </c>
@@ -8664,7 +8665,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>434</v>
       </c>
@@ -8720,7 +8721,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>438</v>
       </c>
@@ -8776,7 +8777,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>442</v>
       </c>
@@ -8832,7 +8833,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>446</v>
       </c>
@@ -8888,7 +8889,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>450</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>453</v>
       </c>
@@ -9000,7 +9001,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>457</v>
       </c>
@@ -9056,7 +9057,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>461</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>465</v>
       </c>
@@ -9168,7 +9169,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>469</v>
       </c>
@@ -9224,7 +9225,7 @@
         <v>1.2309602025362789</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>473</v>
       </c>
